--- a/Mateo_ventana250.xlsx
+++ b/Mateo_ventana250.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB2465-AEA0-4B0A-A293-ADB15847DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE2A98-3E01-4BBA-9A0D-EBDDDC0F54D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +70,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,12 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,22 +434,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:K277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -459,14 +468,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>250</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>45296</v>
       </c>
       <c r="D2">
@@ -486,14 +495,14 @@
         <v>467.92001342773438</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>251</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>45299</v>
       </c>
       <c r="D3">
@@ -513,14 +522,14 @@
         <v>474.60000610351563</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>252</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>45300</v>
       </c>
       <c r="D4">
@@ -540,14 +549,14 @@
         <v>473.8800048828125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>253</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>45301</v>
       </c>
       <c r="D5">
@@ -567,14 +576,14 @@
         <v>476.55999755859381</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>254</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>45302</v>
       </c>
       <c r="D6">
@@ -594,14 +603,14 @@
         <v>476.35000610351563</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>255</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>45303</v>
       </c>
       <c r="D7">
@@ -621,14 +630,14 @@
         <v>476.67999267578131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>256</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>45307</v>
       </c>
       <c r="D8">
@@ -647,15 +656,16 @@
       <c r="H8">
         <v>474.92999267578131</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>257</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>45308</v>
       </c>
       <c r="D9">
@@ -675,14 +685,14 @@
         <v>472.29000854492188</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>258</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>45309</v>
       </c>
       <c r="D10">
@@ -702,14 +712,14 @@
         <v>476.489990234375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>259</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>45310</v>
       </c>
       <c r="D11">
@@ -729,14 +739,14 @@
         <v>482.42999267578131</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>260</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>45313</v>
       </c>
       <c r="D12">
@@ -756,14 +766,14 @@
         <v>483.45001220703131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>261</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>45314</v>
       </c>
       <c r="D13">
@@ -783,14 +793,14 @@
         <v>484.8599853515625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>262</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>45315</v>
       </c>
       <c r="D14">
@@ -810,14 +820,14 @@
         <v>485.3900146484375</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>263</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>45316</v>
       </c>
       <c r="D15">
@@ -837,14 +847,14 @@
         <v>488.02999877929688</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>264</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>45317</v>
       </c>
       <c r="D16">
@@ -871,7 +881,7 @@
       <c r="B17">
         <v>265</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>45320</v>
       </c>
       <c r="D17">
@@ -898,7 +908,7 @@
       <c r="B18">
         <v>266</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>45321</v>
       </c>
       <c r="D18">
@@ -925,7 +935,7 @@
       <c r="B19">
         <v>267</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>45322</v>
       </c>
       <c r="D19">
@@ -952,7 +962,7 @@
       <c r="B20">
         <v>268</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>45323</v>
       </c>
       <c r="D20">
@@ -979,7 +989,7 @@
       <c r="B21">
         <v>269</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>45324</v>
       </c>
       <c r="D21">
@@ -1006,7 +1016,7 @@
       <c r="B22">
         <v>270</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>45327</v>
       </c>
       <c r="D22">
@@ -1033,7 +1043,7 @@
       <c r="B23">
         <v>271</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>45328</v>
       </c>
       <c r="D23">
@@ -1060,7 +1070,7 @@
       <c r="B24">
         <v>272</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>45329</v>
       </c>
       <c r="D24">
@@ -1087,7 +1097,7 @@
       <c r="B25">
         <v>273</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>45330</v>
       </c>
       <c r="D25">
@@ -1114,7 +1124,7 @@
       <c r="B26">
         <v>274</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>45331</v>
       </c>
       <c r="D26">
@@ -1141,7 +1151,7 @@
       <c r="B27">
         <v>275</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>45334</v>
       </c>
       <c r="D27">
@@ -1168,7 +1178,7 @@
       <c r="B28">
         <v>276</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>45335</v>
       </c>
       <c r="D28">
@@ -1195,7 +1205,7 @@
       <c r="B29">
         <v>277</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>45336</v>
       </c>
       <c r="D29">
@@ -1222,7 +1232,7 @@
       <c r="B30">
         <v>278</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>45337</v>
       </c>
       <c r="D30">
@@ -1249,7 +1259,7 @@
       <c r="B31">
         <v>279</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>45338</v>
       </c>
       <c r="D31">
@@ -1276,7 +1286,7 @@
       <c r="B32">
         <v>280</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>45342</v>
       </c>
       <c r="D32">
@@ -1303,7 +1313,7 @@
       <c r="B33">
         <v>281</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>45343</v>
       </c>
       <c r="D33">
@@ -1330,7 +1340,7 @@
       <c r="B34">
         <v>282</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>45344</v>
       </c>
       <c r="D34">
@@ -1357,7 +1367,7 @@
       <c r="B35">
         <v>283</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>45345</v>
       </c>
       <c r="D35">
@@ -1384,7 +1394,7 @@
       <c r="B36">
         <v>284</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>45348</v>
       </c>
       <c r="D36">
@@ -1411,7 +1421,7 @@
       <c r="B37">
         <v>285</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>45349</v>
       </c>
       <c r="D37">
@@ -1438,7 +1448,7 @@
       <c r="B38">
         <v>286</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>45350</v>
       </c>
       <c r="D38">
@@ -1465,7 +1475,7 @@
       <c r="B39">
         <v>287</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>45351</v>
       </c>
       <c r="D39">
@@ -1492,7 +1502,7 @@
       <c r="B40">
         <v>288</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>45352</v>
       </c>
       <c r="D40">
@@ -1519,7 +1529,7 @@
       <c r="B41">
         <v>289</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>45355</v>
       </c>
       <c r="D41">
@@ -1546,7 +1556,7 @@
       <c r="B42">
         <v>290</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>45356</v>
       </c>
       <c r="D42">
@@ -1573,7 +1583,7 @@
       <c r="B43">
         <v>291</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>45357</v>
       </c>
       <c r="D43">
@@ -1600,7 +1610,7 @@
       <c r="B44">
         <v>292</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>45358</v>
       </c>
       <c r="D44">
@@ -1627,7 +1637,7 @@
       <c r="B45">
         <v>293</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>45359</v>
       </c>
       <c r="D45">
@@ -1654,7 +1664,7 @@
       <c r="B46">
         <v>294</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>45362</v>
       </c>
       <c r="D46">
@@ -1681,7 +1691,7 @@
       <c r="B47">
         <v>295</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>45363</v>
       </c>
       <c r="D47">
@@ -1708,7 +1718,7 @@
       <c r="B48">
         <v>296</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>45364</v>
       </c>
       <c r="D48">
@@ -1735,7 +1745,7 @@
       <c r="B49">
         <v>297</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>45365</v>
       </c>
       <c r="D49">
@@ -1762,7 +1772,7 @@
       <c r="B50">
         <v>298</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>45366</v>
       </c>
       <c r="D50">
@@ -1789,7 +1799,7 @@
       <c r="B51">
         <v>299</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>45369</v>
       </c>
       <c r="D51">
@@ -1816,7 +1826,7 @@
       <c r="B52">
         <v>300</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>45370</v>
       </c>
       <c r="D52">
@@ -1843,7 +1853,7 @@
       <c r="B53">
         <v>301</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>45371</v>
       </c>
       <c r="D53">
@@ -1870,7 +1880,7 @@
       <c r="B54">
         <v>302</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>45372</v>
       </c>
       <c r="D54">
@@ -1897,7 +1907,7 @@
       <c r="B55">
         <v>303</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>45373</v>
       </c>
       <c r="D55">
@@ -1924,7 +1934,7 @@
       <c r="B56">
         <v>304</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>45376</v>
       </c>
       <c r="D56">
@@ -1951,7 +1961,7 @@
       <c r="B57">
         <v>305</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>45377</v>
       </c>
       <c r="D57">
@@ -1978,7 +1988,7 @@
       <c r="B58">
         <v>306</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>45378</v>
       </c>
       <c r="D58">
@@ -2005,7 +2015,7 @@
       <c r="B59">
         <v>307</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>45379</v>
       </c>
       <c r="D59">
@@ -2032,7 +2042,7 @@
       <c r="B60">
         <v>308</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>45383</v>
       </c>
       <c r="D60">
@@ -2059,7 +2069,7 @@
       <c r="B61">
         <v>309</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>45384</v>
       </c>
       <c r="D61">
@@ -2086,7 +2096,7 @@
       <c r="B62">
         <v>310</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>45385</v>
       </c>
       <c r="D62">
@@ -2113,7 +2123,7 @@
       <c r="B63">
         <v>311</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>45386</v>
       </c>
       <c r="D63">
@@ -2140,7 +2150,7 @@
       <c r="B64">
         <v>312</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>45387</v>
       </c>
       <c r="D64">
@@ -2167,7 +2177,7 @@
       <c r="B65">
         <v>313</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>45390</v>
       </c>
       <c r="D65">
@@ -2194,7 +2204,7 @@
       <c r="B66">
         <v>314</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>45391</v>
       </c>
       <c r="D66">
@@ -2221,7 +2231,7 @@
       <c r="B67">
         <v>315</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>45392</v>
       </c>
       <c r="D67">
@@ -2248,7 +2258,7 @@
       <c r="B68">
         <v>316</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>45393</v>
       </c>
       <c r="D68">
@@ -2275,7 +2285,7 @@
       <c r="B69">
         <v>317</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>45394</v>
       </c>
       <c r="D69">
@@ -2302,7 +2312,7 @@
       <c r="B70">
         <v>318</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>45397</v>
       </c>
       <c r="D70">
@@ -2329,7 +2339,7 @@
       <c r="B71">
         <v>319</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>45398</v>
       </c>
       <c r="D71">
@@ -2356,7 +2366,7 @@
       <c r="B72">
         <v>320</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>45399</v>
       </c>
       <c r="D72">
@@ -2383,7 +2393,7 @@
       <c r="B73">
         <v>321</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>45400</v>
       </c>
       <c r="D73">
@@ -2410,7 +2420,7 @@
       <c r="B74">
         <v>322</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>45401</v>
       </c>
       <c r="D74">
@@ -2437,7 +2447,7 @@
       <c r="B75">
         <v>323</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>45404</v>
       </c>
       <c r="D75">
@@ -2464,7 +2474,7 @@
       <c r="B76">
         <v>324</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>45405</v>
       </c>
       <c r="D76">
@@ -2491,7 +2501,7 @@
       <c r="B77">
         <v>325</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>45406</v>
       </c>
       <c r="D77">
@@ -2518,7 +2528,7 @@
       <c r="B78">
         <v>326</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <v>45407</v>
       </c>
       <c r="D78">
@@ -2545,7 +2555,7 @@
       <c r="B79">
         <v>327</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <v>45408</v>
       </c>
       <c r="D79">
@@ -2572,7 +2582,7 @@
       <c r="B80">
         <v>328</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="3">
         <v>45411</v>
       </c>
       <c r="D80">
@@ -2599,7 +2609,7 @@
       <c r="B81">
         <v>329</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <v>45412</v>
       </c>
       <c r="D81">
@@ -2626,7 +2636,7 @@
       <c r="B82">
         <v>330</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>45413</v>
       </c>
       <c r="D82">
@@ -2653,7 +2663,7 @@
       <c r="B83">
         <v>331</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <v>45414</v>
       </c>
       <c r="D83">
@@ -2680,7 +2690,7 @@
       <c r="B84">
         <v>332</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <v>45415</v>
       </c>
       <c r="D84">
@@ -2707,7 +2717,7 @@
       <c r="B85">
         <v>333</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <v>45418</v>
       </c>
       <c r="D85">
@@ -2734,7 +2744,7 @@
       <c r="B86">
         <v>334</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="3">
         <v>45419</v>
       </c>
       <c r="D86">
@@ -2761,7 +2771,7 @@
       <c r="B87">
         <v>335</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <v>45420</v>
       </c>
       <c r="D87">
@@ -2788,7 +2798,7 @@
       <c r="B88">
         <v>336</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="3">
         <v>45421</v>
       </c>
       <c r="D88">
@@ -2815,7 +2825,7 @@
       <c r="B89">
         <v>337</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="3">
         <v>45422</v>
       </c>
       <c r="D89">
@@ -2842,7 +2852,7 @@
       <c r="B90">
         <v>338</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <v>45425</v>
       </c>
       <c r="D90">
@@ -2869,7 +2879,7 @@
       <c r="B91">
         <v>339</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="3">
         <v>45426</v>
       </c>
       <c r="D91">
@@ -2896,7 +2906,7 @@
       <c r="B92">
         <v>340</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>45427</v>
       </c>
       <c r="D92">
@@ -2923,7 +2933,7 @@
       <c r="B93">
         <v>341</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="3">
         <v>45428</v>
       </c>
       <c r="D93">
@@ -2950,7 +2960,7 @@
       <c r="B94">
         <v>342</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>45429</v>
       </c>
       <c r="D94">
@@ -2977,7 +2987,7 @@
       <c r="B95">
         <v>343</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="3">
         <v>45432</v>
       </c>
       <c r="D95">
@@ -3004,7 +3014,7 @@
       <c r="B96">
         <v>344</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="3">
         <v>45433</v>
       </c>
       <c r="D96">
@@ -3031,7 +3041,7 @@
       <c r="B97">
         <v>345</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="3">
         <v>45434</v>
       </c>
       <c r="D97">
@@ -3058,7 +3068,7 @@
       <c r="B98">
         <v>346</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <v>45435</v>
       </c>
       <c r="D98">
@@ -3085,7 +3095,7 @@
       <c r="B99">
         <v>347</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="3">
         <v>45436</v>
       </c>
       <c r="D99">
@@ -3112,7 +3122,7 @@
       <c r="B100">
         <v>348</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <v>45440</v>
       </c>
       <c r="D100">
@@ -3139,7 +3149,7 @@
       <c r="B101">
         <v>349</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="3">
         <v>45441</v>
       </c>
       <c r="D101">
@@ -3166,7 +3176,7 @@
       <c r="B102">
         <v>350</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <v>45442</v>
       </c>
       <c r="D102">
@@ -3193,7 +3203,7 @@
       <c r="B103">
         <v>351</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="3">
         <v>45443</v>
       </c>
       <c r="D103">
@@ -3220,7 +3230,7 @@
       <c r="B104">
         <v>352</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="3">
         <v>45446</v>
       </c>
       <c r="D104">
@@ -3247,7 +3257,7 @@
       <c r="B105">
         <v>353</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="3">
         <v>45447</v>
       </c>
       <c r="D105">
@@ -3274,7 +3284,7 @@
       <c r="B106">
         <v>354</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>45448</v>
       </c>
       <c r="D106">
@@ -3301,7 +3311,7 @@
       <c r="B107">
         <v>355</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="3">
         <v>45449</v>
       </c>
       <c r="D107">
@@ -3328,7 +3338,7 @@
       <c r="B108">
         <v>356</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <v>45450</v>
       </c>
       <c r="D108">
@@ -3355,7 +3365,7 @@
       <c r="B109">
         <v>357</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>45453</v>
       </c>
       <c r="D109">
@@ -3382,7 +3392,7 @@
       <c r="B110">
         <v>358</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <v>45454</v>
       </c>
       <c r="D110">
@@ -3409,7 +3419,7 @@
       <c r="B111">
         <v>359</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="3">
         <v>45455</v>
       </c>
       <c r="D111">
@@ -3436,7 +3446,7 @@
       <c r="B112">
         <v>360</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="3">
         <v>45456</v>
       </c>
       <c r="D112">
@@ -3463,7 +3473,7 @@
       <c r="B113">
         <v>361</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="3">
         <v>45457</v>
       </c>
       <c r="D113">
@@ -3490,7 +3500,7 @@
       <c r="B114">
         <v>362</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="3">
         <v>45460</v>
       </c>
       <c r="D114">
@@ -3517,7 +3527,7 @@
       <c r="B115">
         <v>363</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="3">
         <v>45461</v>
       </c>
       <c r="D115">
@@ -3544,7 +3554,7 @@
       <c r="B116">
         <v>364</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="3">
         <v>45463</v>
       </c>
       <c r="D116">
@@ -3571,7 +3581,7 @@
       <c r="B117">
         <v>365</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="3">
         <v>45464</v>
       </c>
       <c r="D117">
@@ -3598,7 +3608,7 @@
       <c r="B118">
         <v>366</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="3">
         <v>45467</v>
       </c>
       <c r="D118">
@@ -3625,7 +3635,7 @@
       <c r="B119">
         <v>367</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="3">
         <v>45468</v>
       </c>
       <c r="D119">
@@ -3652,7 +3662,7 @@
       <c r="B120">
         <v>368</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="3">
         <v>45469</v>
       </c>
       <c r="D120">
@@ -3679,7 +3689,7 @@
       <c r="B121">
         <v>369</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="3">
         <v>45470</v>
       </c>
       <c r="D121">
@@ -3706,7 +3716,7 @@
       <c r="B122">
         <v>370</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="3">
         <v>45471</v>
       </c>
       <c r="D122">
@@ -3733,7 +3743,7 @@
       <c r="B123">
         <v>371</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="3">
         <v>45474</v>
       </c>
       <c r="D123">
@@ -3760,7 +3770,7 @@
       <c r="B124">
         <v>372</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="3">
         <v>45475</v>
       </c>
       <c r="D124">
@@ -3787,7 +3797,7 @@
       <c r="B125">
         <v>373</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="3">
         <v>45476</v>
       </c>
       <c r="D125">
@@ -3814,7 +3824,7 @@
       <c r="B126">
         <v>374</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="3">
         <v>45478</v>
       </c>
       <c r="D126">
@@ -3841,7 +3851,7 @@
       <c r="B127">
         <v>375</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="3">
         <v>45481</v>
       </c>
       <c r="D127">
@@ -3868,7 +3878,7 @@
       <c r="B128">
         <v>376</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="3">
         <v>45482</v>
       </c>
       <c r="D128">
@@ -3895,7 +3905,7 @@
       <c r="B129">
         <v>377</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="3">
         <v>45483</v>
       </c>
       <c r="D129">
@@ -3922,7 +3932,7 @@
       <c r="B130">
         <v>378</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="3">
         <v>45484</v>
       </c>
       <c r="D130">
@@ -3949,7 +3959,7 @@
       <c r="B131">
         <v>379</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="3">
         <v>45485</v>
       </c>
       <c r="D131">
@@ -3976,7 +3986,7 @@
       <c r="B132">
         <v>380</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="3">
         <v>45488</v>
       </c>
       <c r="D132">
@@ -4003,7 +4013,7 @@
       <c r="B133">
         <v>381</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="3">
         <v>45489</v>
       </c>
       <c r="D133">
@@ -4030,7 +4040,7 @@
       <c r="B134">
         <v>382</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="3">
         <v>45490</v>
       </c>
       <c r="D134">
@@ -4057,7 +4067,7 @@
       <c r="B135">
         <v>383</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="3">
         <v>45491</v>
       </c>
       <c r="D135">
@@ -4084,7 +4094,7 @@
       <c r="B136">
         <v>384</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="3">
         <v>45492</v>
       </c>
       <c r="D136">
@@ -4111,7 +4121,7 @@
       <c r="B137">
         <v>385</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="3">
         <v>45495</v>
       </c>
       <c r="D137">
@@ -4138,7 +4148,7 @@
       <c r="B138">
         <v>386</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="3">
         <v>45496</v>
       </c>
       <c r="D138">
@@ -4165,7 +4175,7 @@
       <c r="B139">
         <v>387</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="3">
         <v>45497</v>
       </c>
       <c r="D139">
@@ -4192,7 +4202,7 @@
       <c r="B140">
         <v>388</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="3">
         <v>45498</v>
       </c>
       <c r="D140">
@@ -4219,7 +4229,7 @@
       <c r="B141">
         <v>389</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="3">
         <v>45499</v>
       </c>
       <c r="D141">
@@ -4246,7 +4256,7 @@
       <c r="B142">
         <v>390</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="3">
         <v>45502</v>
       </c>
       <c r="D142">
@@ -4273,7 +4283,7 @@
       <c r="B143">
         <v>391</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="3">
         <v>45503</v>
       </c>
       <c r="D143">
@@ -4300,7 +4310,7 @@
       <c r="B144">
         <v>392</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="3">
         <v>45504</v>
       </c>
       <c r="D144">
@@ -4327,7 +4337,7 @@
       <c r="B145">
         <v>393</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="3">
         <v>45505</v>
       </c>
       <c r="D145">
@@ -4354,7 +4364,7 @@
       <c r="B146">
         <v>394</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="3">
         <v>45506</v>
       </c>
       <c r="D146">
@@ -4381,7 +4391,7 @@
       <c r="B147">
         <v>395</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="3">
         <v>45509</v>
       </c>
       <c r="D147">
@@ -4408,7 +4418,7 @@
       <c r="B148">
         <v>396</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="3">
         <v>45510</v>
       </c>
       <c r="D148">
@@ -4435,7 +4445,7 @@
       <c r="B149">
         <v>397</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="3">
         <v>45511</v>
       </c>
       <c r="D149">
@@ -4462,7 +4472,7 @@
       <c r="B150">
         <v>398</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="3">
         <v>45512</v>
       </c>
       <c r="D150">
@@ -4489,7 +4499,7 @@
       <c r="B151">
         <v>399</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="3">
         <v>45513</v>
       </c>
       <c r="D151">
@@ -4516,7 +4526,7 @@
       <c r="B152">
         <v>400</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="3">
         <v>45516</v>
       </c>
       <c r="D152">
@@ -4543,7 +4553,7 @@
       <c r="B153">
         <v>401</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="3">
         <v>45517</v>
       </c>
       <c r="D153">
@@ -4570,7 +4580,7 @@
       <c r="B154">
         <v>402</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="3">
         <v>45518</v>
       </c>
       <c r="D154">
@@ -4597,7 +4607,7 @@
       <c r="B155">
         <v>403</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="3">
         <v>45519</v>
       </c>
       <c r="D155">
@@ -4624,7 +4634,7 @@
       <c r="B156">
         <v>404</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="3">
         <v>45520</v>
       </c>
       <c r="D156">
@@ -4651,7 +4661,7 @@
       <c r="B157">
         <v>405</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="3">
         <v>45523</v>
       </c>
       <c r="D157">
@@ -4678,7 +4688,7 @@
       <c r="B158">
         <v>406</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="3">
         <v>45524</v>
       </c>
       <c r="D158">
@@ -4705,7 +4715,7 @@
       <c r="B159">
         <v>407</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="3">
         <v>45525</v>
       </c>
       <c r="D159">
@@ -4732,7 +4742,7 @@
       <c r="B160">
         <v>408</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="3">
         <v>45526</v>
       </c>
       <c r="D160">
@@ -4759,7 +4769,7 @@
       <c r="B161">
         <v>409</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="3">
         <v>45527</v>
       </c>
       <c r="D161">
@@ -4786,7 +4796,7 @@
       <c r="B162">
         <v>410</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="3">
         <v>45530</v>
       </c>
       <c r="D162">
@@ -4813,7 +4823,7 @@
       <c r="B163">
         <v>411</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="3">
         <v>45531</v>
       </c>
       <c r="D163">
@@ -4840,7 +4850,7 @@
       <c r="B164">
         <v>412</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="3">
         <v>45532</v>
       </c>
       <c r="D164">
@@ -4867,7 +4877,7 @@
       <c r="B165">
         <v>413</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="3">
         <v>45533</v>
       </c>
       <c r="D165">
@@ -4894,7 +4904,7 @@
       <c r="B166">
         <v>414</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="3">
         <v>45534</v>
       </c>
       <c r="D166">
@@ -4921,7 +4931,7 @@
       <c r="B167">
         <v>415</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="3">
         <v>45538</v>
       </c>
       <c r="D167">
@@ -4948,7 +4958,7 @@
       <c r="B168">
         <v>416</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="3">
         <v>45539</v>
       </c>
       <c r="D168">
@@ -4975,7 +4985,7 @@
       <c r="B169">
         <v>417</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="3">
         <v>45540</v>
       </c>
       <c r="D169">
@@ -5002,7 +5012,7 @@
       <c r="B170">
         <v>418</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="3">
         <v>45541</v>
       </c>
       <c r="D170">
@@ -5029,7 +5039,7 @@
       <c r="B171">
         <v>419</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="3">
         <v>45544</v>
       </c>
       <c r="D171">
@@ -5056,7 +5066,7 @@
       <c r="B172">
         <v>420</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="3">
         <v>45545</v>
       </c>
       <c r="D172">
@@ -5083,7 +5093,7 @@
       <c r="B173">
         <v>421</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="3">
         <v>45546</v>
       </c>
       <c r="D173">
@@ -5110,7 +5120,7 @@
       <c r="B174">
         <v>422</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="3">
         <v>45547</v>
       </c>
       <c r="D174">
@@ -5137,7 +5147,7 @@
       <c r="B175">
         <v>423</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="3">
         <v>45548</v>
       </c>
       <c r="D175">
@@ -5164,7 +5174,7 @@
       <c r="B176">
         <v>424</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="3">
         <v>45551</v>
       </c>
       <c r="D176">
@@ -5191,7 +5201,7 @@
       <c r="B177">
         <v>425</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="3">
         <v>45552</v>
       </c>
       <c r="D177">
@@ -5218,7 +5228,7 @@
       <c r="B178">
         <v>426</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="3">
         <v>45553</v>
       </c>
       <c r="D178">
@@ -5245,7 +5255,7 @@
       <c r="B179">
         <v>427</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="3">
         <v>45554</v>
       </c>
       <c r="D179">
@@ -5272,7 +5282,7 @@
       <c r="B180">
         <v>428</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="3">
         <v>45555</v>
       </c>
       <c r="D180">
@@ -5299,7 +5309,7 @@
       <c r="B181">
         <v>429</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="3">
         <v>45558</v>
       </c>
       <c r="D181">
@@ -5326,7 +5336,7 @@
       <c r="B182">
         <v>430</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="3">
         <v>45559</v>
       </c>
       <c r="D182">
@@ -5353,7 +5363,7 @@
       <c r="B183">
         <v>431</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="3">
         <v>45560</v>
       </c>
       <c r="D183">
@@ -5380,7 +5390,7 @@
       <c r="B184">
         <v>432</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="3">
         <v>45561</v>
       </c>
       <c r="D184">
@@ -5407,7 +5417,7 @@
       <c r="B185">
         <v>433</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="3">
         <v>45562</v>
       </c>
       <c r="D185">
@@ -5434,7 +5444,7 @@
       <c r="B186">
         <v>434</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="3">
         <v>45565</v>
       </c>
       <c r="D186">
@@ -5461,7 +5471,7 @@
       <c r="B187">
         <v>435</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="3">
         <v>45566</v>
       </c>
       <c r="D187">
@@ -5488,7 +5498,7 @@
       <c r="B188">
         <v>436</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="3">
         <v>45567</v>
       </c>
       <c r="D188">
@@ -5515,7 +5525,7 @@
       <c r="B189">
         <v>437</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="3">
         <v>45568</v>
       </c>
       <c r="D189">
@@ -5542,7 +5552,7 @@
       <c r="B190">
         <v>438</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="3">
         <v>45569</v>
       </c>
       <c r="D190">
@@ -5569,7 +5579,7 @@
       <c r="B191">
         <v>439</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="3">
         <v>45572</v>
       </c>
       <c r="D191">
@@ -5596,7 +5606,7 @@
       <c r="B192">
         <v>440</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="3">
         <v>45573</v>
       </c>
       <c r="D192">
@@ -5623,7 +5633,7 @@
       <c r="B193">
         <v>441</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="3">
         <v>45574</v>
       </c>
       <c r="D193">
@@ -5650,7 +5660,7 @@
       <c r="B194">
         <v>442</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="3">
         <v>45575</v>
       </c>
       <c r="D194">
@@ -5677,7 +5687,7 @@
       <c r="B195">
         <v>443</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="3">
         <v>45576</v>
       </c>
       <c r="D195">
@@ -5704,7 +5714,7 @@
       <c r="B196">
         <v>444</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="3">
         <v>45579</v>
       </c>
       <c r="D196">
@@ -5731,7 +5741,7 @@
       <c r="B197">
         <v>445</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="3">
         <v>45580</v>
       </c>
       <c r="D197">
@@ -5758,7 +5768,7 @@
       <c r="B198">
         <v>446</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="3">
         <v>45581</v>
       </c>
       <c r="D198">
@@ -5785,7 +5795,7 @@
       <c r="B199">
         <v>447</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="3">
         <v>45582</v>
       </c>
       <c r="D199">
@@ -5812,7 +5822,7 @@
       <c r="B200">
         <v>448</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="3">
         <v>45583</v>
       </c>
       <c r="D200">
@@ -5839,7 +5849,7 @@
       <c r="B201">
         <v>449</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="3">
         <v>45586</v>
       </c>
       <c r="D201">
@@ -5866,7 +5876,7 @@
       <c r="B202">
         <v>450</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="3">
         <v>45587</v>
       </c>
       <c r="D202">
@@ -5893,7 +5903,7 @@
       <c r="B203">
         <v>451</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="3">
         <v>45588</v>
       </c>
       <c r="D203">
@@ -5920,7 +5930,7 @@
       <c r="B204">
         <v>452</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="3">
         <v>45589</v>
       </c>
       <c r="D204">
@@ -5947,7 +5957,7 @@
       <c r="B205">
         <v>453</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="3">
         <v>45590</v>
       </c>
       <c r="D205">
@@ -5974,7 +5984,7 @@
       <c r="B206">
         <v>454</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="3">
         <v>45593</v>
       </c>
       <c r="D206">
@@ -6001,7 +6011,7 @@
       <c r="B207">
         <v>455</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="3">
         <v>45594</v>
       </c>
       <c r="D207">
@@ -6028,7 +6038,7 @@
       <c r="B208">
         <v>456</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="3">
         <v>45595</v>
       </c>
       <c r="D208">
@@ -6055,7 +6065,7 @@
       <c r="B209">
         <v>457</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="3">
         <v>45596</v>
       </c>
       <c r="D209">
@@ -6082,7 +6092,7 @@
       <c r="B210">
         <v>458</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="3">
         <v>45597</v>
       </c>
       <c r="D210">
@@ -6109,7 +6119,7 @@
       <c r="B211">
         <v>459</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="3">
         <v>45600</v>
       </c>
       <c r="D211">
@@ -6136,7 +6146,7 @@
       <c r="B212">
         <v>460</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="3">
         <v>45601</v>
       </c>
       <c r="D212">
@@ -6163,7 +6173,7 @@
       <c r="B213">
         <v>461</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="3">
         <v>45602</v>
       </c>
       <c r="D213">
@@ -6190,7 +6200,7 @@
       <c r="B214">
         <v>462</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="3">
         <v>45603</v>
       </c>
       <c r="D214">
@@ -6217,7 +6227,7 @@
       <c r="B215">
         <v>463</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="3">
         <v>45604</v>
       </c>
       <c r="D215">
@@ -6244,7 +6254,7 @@
       <c r="B216">
         <v>464</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="3">
         <v>45607</v>
       </c>
       <c r="D216">
@@ -6271,7 +6281,7 @@
       <c r="B217">
         <v>465</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="3">
         <v>45608</v>
       </c>
       <c r="D217">
@@ -6298,7 +6308,7 @@
       <c r="B218">
         <v>466</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="3">
         <v>45609</v>
       </c>
       <c r="D218">
@@ -6325,7 +6335,7 @@
       <c r="B219">
         <v>467</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="3">
         <v>45610</v>
       </c>
       <c r="D219">
@@ -6352,7 +6362,7 @@
       <c r="B220">
         <v>468</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="3">
         <v>45611</v>
       </c>
       <c r="D220">
@@ -6379,7 +6389,7 @@
       <c r="B221">
         <v>469</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="3">
         <v>45614</v>
       </c>
       <c r="D221">
@@ -6406,7 +6416,7 @@
       <c r="B222">
         <v>470</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="3">
         <v>45615</v>
       </c>
       <c r="D222">
@@ -6433,7 +6443,7 @@
       <c r="B223">
         <v>471</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="3">
         <v>45616</v>
       </c>
       <c r="D223">
@@ -6460,7 +6470,7 @@
       <c r="B224">
         <v>472</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="3">
         <v>45617</v>
       </c>
       <c r="D224">
@@ -6487,7 +6497,7 @@
       <c r="B225">
         <v>473</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="3">
         <v>45618</v>
       </c>
       <c r="D225">
@@ -6514,7 +6524,7 @@
       <c r="B226">
         <v>474</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="3">
         <v>45621</v>
       </c>
       <c r="D226">
@@ -6541,7 +6551,7 @@
       <c r="B227">
         <v>475</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="3">
         <v>45622</v>
       </c>
       <c r="D227">
@@ -6568,7 +6578,7 @@
       <c r="B228">
         <v>476</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="3">
         <v>45623</v>
       </c>
       <c r="D228">
@@ -6595,7 +6605,7 @@
       <c r="B229">
         <v>477</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="3">
         <v>45625</v>
       </c>
       <c r="D229">
@@ -6622,7 +6632,7 @@
       <c r="B230">
         <v>478</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="3">
         <v>45628</v>
       </c>
       <c r="D230">
@@ -6649,7 +6659,7 @@
       <c r="B231">
         <v>479</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="3">
         <v>45629</v>
       </c>
       <c r="D231">
@@ -6676,7 +6686,7 @@
       <c r="B232">
         <v>480</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="3">
         <v>45630</v>
       </c>
       <c r="D232">
@@ -6703,7 +6713,7 @@
       <c r="B233">
         <v>481</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="3">
         <v>45631</v>
       </c>
       <c r="D233">
@@ -6730,7 +6740,7 @@
       <c r="B234">
         <v>482</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="3">
         <v>45632</v>
       </c>
       <c r="D234">
@@ -6757,7 +6767,7 @@
       <c r="B235">
         <v>483</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="3">
         <v>45635</v>
       </c>
       <c r="D235">
@@ -6784,7 +6794,7 @@
       <c r="B236">
         <v>484</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="3">
         <v>45636</v>
       </c>
       <c r="D236">
@@ -6811,7 +6821,7 @@
       <c r="B237">
         <v>485</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="3">
         <v>45637</v>
       </c>
       <c r="D237">
@@ -6838,7 +6848,7 @@
       <c r="B238">
         <v>486</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="3">
         <v>45638</v>
       </c>
       <c r="D238">
@@ -6865,7 +6875,7 @@
       <c r="B239">
         <v>487</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="3">
         <v>45639</v>
       </c>
       <c r="D239">
@@ -6892,7 +6902,7 @@
       <c r="B240">
         <v>488</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="3">
         <v>45642</v>
       </c>
       <c r="D240">
@@ -6919,7 +6929,7 @@
       <c r="B241">
         <v>489</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="3">
         <v>45643</v>
       </c>
       <c r="D241">
@@ -6946,7 +6956,7 @@
       <c r="B242">
         <v>490</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="3">
         <v>45644</v>
       </c>
       <c r="D242">
@@ -6973,7 +6983,7 @@
       <c r="B243">
         <v>491</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="3">
         <v>45645</v>
       </c>
       <c r="D243">
@@ -7000,7 +7010,7 @@
       <c r="B244">
         <v>492</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="3">
         <v>45646</v>
       </c>
       <c r="D244">
@@ -7027,7 +7037,7 @@
       <c r="B245">
         <v>493</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="3">
         <v>45649</v>
       </c>
       <c r="D245">
@@ -7054,7 +7064,7 @@
       <c r="B246">
         <v>494</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="3">
         <v>45650</v>
       </c>
       <c r="D246">
@@ -7081,7 +7091,7 @@
       <c r="B247">
         <v>495</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="3">
         <v>45652</v>
       </c>
       <c r="D247">
@@ -7108,7 +7118,7 @@
       <c r="B248">
         <v>496</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="3">
         <v>45653</v>
       </c>
       <c r="D248">
@@ -7135,7 +7145,7 @@
       <c r="B249">
         <v>497</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="3">
         <v>45656</v>
       </c>
       <c r="D249">
@@ -7162,7 +7172,7 @@
       <c r="B250">
         <v>498</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="3">
         <v>45657</v>
       </c>
       <c r="D250">
@@ -7189,7 +7199,7 @@
       <c r="B251">
         <v>499</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="3">
         <v>45659</v>
       </c>
       <c r="D251">
@@ -7216,7 +7226,7 @@
       <c r="B252">
         <v>500</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="3">
         <v>45660</v>
       </c>
       <c r="D252">
@@ -7243,7 +7253,7 @@
       <c r="B253">
         <v>501</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="3">
         <v>45663</v>
       </c>
       <c r="D253">
@@ -7270,7 +7280,7 @@
       <c r="B254">
         <v>502</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="3">
         <v>45664</v>
       </c>
       <c r="D254">
@@ -7297,7 +7307,7 @@
       <c r="B255">
         <v>503</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="3">
         <v>45665</v>
       </c>
       <c r="D255">
@@ -7324,7 +7334,7 @@
       <c r="B256">
         <v>504</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="3">
         <v>45667</v>
       </c>
       <c r="D256">
@@ -7351,7 +7361,7 @@
       <c r="B257">
         <v>505</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="3">
         <v>45670</v>
       </c>
       <c r="D257">
@@ -7378,7 +7388,7 @@
       <c r="B258">
         <v>506</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="3">
         <v>45671</v>
       </c>
       <c r="D258">
@@ -7405,7 +7415,7 @@
       <c r="B259">
         <v>507</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="3">
         <v>45672</v>
       </c>
       <c r="D259">
@@ -7432,7 +7442,7 @@
       <c r="B260">
         <v>508</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="3">
         <v>45673</v>
       </c>
       <c r="D260">
@@ -7459,7 +7469,7 @@
       <c r="B261">
         <v>509</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="3">
         <v>45674</v>
       </c>
       <c r="D261">
@@ -7486,7 +7496,7 @@
       <c r="B262">
         <v>510</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="3">
         <v>45678</v>
       </c>
       <c r="D262">
@@ -7513,7 +7523,7 @@
       <c r="B263">
         <v>511</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="3">
         <v>45679</v>
       </c>
       <c r="D263">
@@ -7540,7 +7550,7 @@
       <c r="B264">
         <v>512</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="3">
         <v>45680</v>
       </c>
       <c r="D264">
@@ -7567,7 +7577,7 @@
       <c r="B265">
         <v>513</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="3">
         <v>45681</v>
       </c>
       <c r="D265">
@@ -7594,7 +7604,7 @@
       <c r="B266">
         <v>514</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="3">
         <v>45684</v>
       </c>
       <c r="D266">
@@ -7621,7 +7631,7 @@
       <c r="B267">
         <v>515</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="3">
         <v>45685</v>
       </c>
       <c r="D267">
@@ -7648,7 +7658,7 @@
       <c r="B268">
         <v>516</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="3">
         <v>45686</v>
       </c>
       <c r="D268">
@@ -7675,7 +7685,7 @@
       <c r="B269">
         <v>517</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="3">
         <v>45687</v>
       </c>
       <c r="D269">
@@ -7702,7 +7712,7 @@
       <c r="B270">
         <v>518</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="3">
         <v>45688</v>
       </c>
       <c r="D270">
@@ -7729,7 +7739,7 @@
       <c r="B271">
         <v>519</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="3">
         <v>45691</v>
       </c>
       <c r="D271">
@@ -7756,7 +7766,7 @@
       <c r="B272">
         <v>520</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="3">
         <v>45692</v>
       </c>
       <c r="D272">
@@ -7783,7 +7793,7 @@
       <c r="B273">
         <v>521</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273" s="3">
         <v>45693</v>
       </c>
       <c r="D273">
@@ -7810,7 +7820,7 @@
       <c r="B274">
         <v>522</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274" s="3">
         <v>45694</v>
       </c>
       <c r="D274">
@@ -7837,7 +7847,7 @@
       <c r="B275">
         <v>523</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="3">
         <v>45695</v>
       </c>
       <c r="D275">
@@ -7864,7 +7874,7 @@
       <c r="B276">
         <v>524</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="3">
         <v>45698</v>
       </c>
       <c r="D276">

--- a/Mateo_ventana250.xlsx
+++ b/Mateo_ventana250.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE2A98-3E01-4BBA-9A0D-EBDDDC0F54D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800A753-9F67-42DE-85C5-17F5EB5F760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -130,6 +133,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="K269" sqref="K269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +479,7 @@
       <c r="B2">
         <v>250</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>45296</v>
       </c>
       <c r="D2">
@@ -502,7 +506,7 @@
       <c r="B3">
         <v>251</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>45299</v>
       </c>
       <c r="D3">
@@ -529,7 +533,7 @@
       <c r="B4">
         <v>252</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>45300</v>
       </c>
       <c r="D4">
@@ -556,7 +560,7 @@
       <c r="B5">
         <v>253</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>45301</v>
       </c>
       <c r="D5">
@@ -583,7 +587,7 @@
       <c r="B6">
         <v>254</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>45302</v>
       </c>
       <c r="D6">
@@ -610,7 +614,7 @@
       <c r="B7">
         <v>255</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>45303</v>
       </c>
       <c r="D7">
@@ -637,7 +641,7 @@
       <c r="B8">
         <v>256</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>45307</v>
       </c>
       <c r="D8">
@@ -665,7 +669,7 @@
       <c r="B9">
         <v>257</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>45308</v>
       </c>
       <c r="D9">
@@ -692,7 +696,7 @@
       <c r="B10">
         <v>258</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>45309</v>
       </c>
       <c r="D10">
@@ -719,7 +723,7 @@
       <c r="B11">
         <v>259</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>45310</v>
       </c>
       <c r="D11">
@@ -746,7 +750,7 @@
       <c r="B12">
         <v>260</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>45313</v>
       </c>
       <c r="D12">
@@ -773,7 +777,7 @@
       <c r="B13">
         <v>261</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>45314</v>
       </c>
       <c r="D13">
@@ -800,7 +804,7 @@
       <c r="B14">
         <v>262</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>45315</v>
       </c>
       <c r="D14">
@@ -827,7 +831,7 @@
       <c r="B15">
         <v>263</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>45316</v>
       </c>
       <c r="D15">
@@ -854,7 +858,7 @@
       <c r="B16">
         <v>264</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>45317</v>
       </c>
       <c r="D16">
@@ -881,7 +885,7 @@
       <c r="B17">
         <v>265</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>45320</v>
       </c>
       <c r="D17">
@@ -908,7 +912,7 @@
       <c r="B18">
         <v>266</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>45321</v>
       </c>
       <c r="D18">
@@ -935,7 +939,7 @@
       <c r="B19">
         <v>267</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>45322</v>
       </c>
       <c r="D19">
@@ -962,7 +966,7 @@
       <c r="B20">
         <v>268</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>45323</v>
       </c>
       <c r="D20">
@@ -989,7 +993,7 @@
       <c r="B21">
         <v>269</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>45324</v>
       </c>
       <c r="D21">
@@ -1016,7 +1020,7 @@
       <c r="B22">
         <v>270</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>45327</v>
       </c>
       <c r="D22">
@@ -1043,7 +1047,7 @@
       <c r="B23">
         <v>271</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>45328</v>
       </c>
       <c r="D23">
@@ -1070,7 +1074,7 @@
       <c r="B24">
         <v>272</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>45329</v>
       </c>
       <c r="D24">
@@ -1097,7 +1101,7 @@
       <c r="B25">
         <v>273</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>45330</v>
       </c>
       <c r="D25">
@@ -1124,7 +1128,7 @@
       <c r="B26">
         <v>274</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>45331</v>
       </c>
       <c r="D26">
@@ -1151,7 +1155,7 @@
       <c r="B27">
         <v>275</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>45334</v>
       </c>
       <c r="D27">
@@ -1178,7 +1182,7 @@
       <c r="B28">
         <v>276</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>45335</v>
       </c>
       <c r="D28">
@@ -1205,7 +1209,7 @@
       <c r="B29">
         <v>277</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>45336</v>
       </c>
       <c r="D29">
@@ -1232,7 +1236,7 @@
       <c r="B30">
         <v>278</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>45337</v>
       </c>
       <c r="D30">
@@ -1259,7 +1263,7 @@
       <c r="B31">
         <v>279</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>45338</v>
       </c>
       <c r="D31">
@@ -1286,7 +1290,7 @@
       <c r="B32">
         <v>280</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>45342</v>
       </c>
       <c r="D32">
@@ -1313,7 +1317,7 @@
       <c r="B33">
         <v>281</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>45343</v>
       </c>
       <c r="D33">
@@ -1340,7 +1344,7 @@
       <c r="B34">
         <v>282</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>45344</v>
       </c>
       <c r="D34">
@@ -1367,7 +1371,7 @@
       <c r="B35">
         <v>283</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <v>45345</v>
       </c>
       <c r="D35">
@@ -1394,7 +1398,7 @@
       <c r="B36">
         <v>284</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>45348</v>
       </c>
       <c r="D36">
@@ -1421,7 +1425,7 @@
       <c r="B37">
         <v>285</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <v>45349</v>
       </c>
       <c r="D37">
@@ -1448,7 +1452,7 @@
       <c r="B38">
         <v>286</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <v>45350</v>
       </c>
       <c r="D38">
@@ -1475,7 +1479,7 @@
       <c r="B39">
         <v>287</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>45351</v>
       </c>
       <c r="D39">
@@ -1502,7 +1506,7 @@
       <c r="B40">
         <v>288</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>45352</v>
       </c>
       <c r="D40">
@@ -1529,7 +1533,7 @@
       <c r="B41">
         <v>289</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>45355</v>
       </c>
       <c r="D41">
@@ -1556,7 +1560,7 @@
       <c r="B42">
         <v>290</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <v>45356</v>
       </c>
       <c r="D42">
@@ -1583,7 +1587,7 @@
       <c r="B43">
         <v>291</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>45357</v>
       </c>
       <c r="D43">
@@ -1610,7 +1614,7 @@
       <c r="B44">
         <v>292</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <v>45358</v>
       </c>
       <c r="D44">
@@ -1637,7 +1641,7 @@
       <c r="B45">
         <v>293</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>45359</v>
       </c>
       <c r="D45">
@@ -1664,7 +1668,7 @@
       <c r="B46">
         <v>294</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <v>45362</v>
       </c>
       <c r="D46">
@@ -1691,7 +1695,7 @@
       <c r="B47">
         <v>295</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>45363</v>
       </c>
       <c r="D47">
@@ -1718,7 +1722,7 @@
       <c r="B48">
         <v>296</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <v>45364</v>
       </c>
       <c r="D48">
@@ -1745,7 +1749,7 @@
       <c r="B49">
         <v>297</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>45365</v>
       </c>
       <c r="D49">
@@ -1772,7 +1776,7 @@
       <c r="B50">
         <v>298</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <v>45366</v>
       </c>
       <c r="D50">
@@ -1799,7 +1803,7 @@
       <c r="B51">
         <v>299</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>45369</v>
       </c>
       <c r="D51">
@@ -1826,7 +1830,7 @@
       <c r="B52">
         <v>300</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
         <v>45370</v>
       </c>
       <c r="D52">
@@ -1853,7 +1857,7 @@
       <c r="B53">
         <v>301</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="5">
         <v>45371</v>
       </c>
       <c r="D53">
@@ -1880,7 +1884,7 @@
       <c r="B54">
         <v>302</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="5">
         <v>45372</v>
       </c>
       <c r="D54">
@@ -1907,7 +1911,7 @@
       <c r="B55">
         <v>303</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <v>45373</v>
       </c>
       <c r="D55">
@@ -1934,7 +1938,7 @@
       <c r="B56">
         <v>304</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="5">
         <v>45376</v>
       </c>
       <c r="D56">
@@ -1961,7 +1965,7 @@
       <c r="B57">
         <v>305</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
         <v>45377</v>
       </c>
       <c r="D57">
@@ -1988,7 +1992,7 @@
       <c r="B58">
         <v>306</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
         <v>45378</v>
       </c>
       <c r="D58">
@@ -2015,7 +2019,7 @@
       <c r="B59">
         <v>307</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
         <v>45379</v>
       </c>
       <c r="D59">
@@ -2042,7 +2046,7 @@
       <c r="B60">
         <v>308</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <v>45383</v>
       </c>
       <c r="D60">
@@ -2069,7 +2073,7 @@
       <c r="B61">
         <v>309</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="5">
         <v>45384</v>
       </c>
       <c r="D61">
@@ -2096,7 +2100,7 @@
       <c r="B62">
         <v>310</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="5">
         <v>45385</v>
       </c>
       <c r="D62">
@@ -2123,7 +2127,7 @@
       <c r="B63">
         <v>311</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="5">
         <v>45386</v>
       </c>
       <c r="D63">
@@ -2150,7 +2154,7 @@
       <c r="B64">
         <v>312</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="5">
         <v>45387</v>
       </c>
       <c r="D64">
@@ -2177,7 +2181,7 @@
       <c r="B65">
         <v>313</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="5">
         <v>45390</v>
       </c>
       <c r="D65">
@@ -2204,7 +2208,7 @@
       <c r="B66">
         <v>314</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="5">
         <v>45391</v>
       </c>
       <c r="D66">
@@ -2231,7 +2235,7 @@
       <c r="B67">
         <v>315</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="5">
         <v>45392</v>
       </c>
       <c r="D67">
@@ -2258,7 +2262,7 @@
       <c r="B68">
         <v>316</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="5">
         <v>45393</v>
       </c>
       <c r="D68">
@@ -2285,7 +2289,7 @@
       <c r="B69">
         <v>317</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="5">
         <v>45394</v>
       </c>
       <c r="D69">
@@ -2312,7 +2316,7 @@
       <c r="B70">
         <v>318</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="5">
         <v>45397</v>
       </c>
       <c r="D70">
@@ -2339,7 +2343,7 @@
       <c r="B71">
         <v>319</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="5">
         <v>45398</v>
       </c>
       <c r="D71">
@@ -2366,7 +2370,7 @@
       <c r="B72">
         <v>320</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="5">
         <v>45399</v>
       </c>
       <c r="D72">
@@ -2393,7 +2397,7 @@
       <c r="B73">
         <v>321</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="5">
         <v>45400</v>
       </c>
       <c r="D73">
@@ -2420,7 +2424,7 @@
       <c r="B74">
         <v>322</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="5">
         <v>45401</v>
       </c>
       <c r="D74">
@@ -2447,7 +2451,7 @@
       <c r="B75">
         <v>323</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="5">
         <v>45404</v>
       </c>
       <c r="D75">
@@ -2474,7 +2478,7 @@
       <c r="B76">
         <v>324</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="5">
         <v>45405</v>
       </c>
       <c r="D76">
@@ -2501,7 +2505,7 @@
       <c r="B77">
         <v>325</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="5">
         <v>45406</v>
       </c>
       <c r="D77">
@@ -2528,7 +2532,7 @@
       <c r="B78">
         <v>326</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="5">
         <v>45407</v>
       </c>
       <c r="D78">
@@ -2555,7 +2559,7 @@
       <c r="B79">
         <v>327</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="5">
         <v>45408</v>
       </c>
       <c r="D79">
@@ -2582,7 +2586,7 @@
       <c r="B80">
         <v>328</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="5">
         <v>45411</v>
       </c>
       <c r="D80">
@@ -2609,7 +2613,7 @@
       <c r="B81">
         <v>329</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="5">
         <v>45412</v>
       </c>
       <c r="D81">
@@ -2636,7 +2640,7 @@
       <c r="B82">
         <v>330</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="5">
         <v>45413</v>
       </c>
       <c r="D82">
@@ -2663,7 +2667,7 @@
       <c r="B83">
         <v>331</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="5">
         <v>45414</v>
       </c>
       <c r="D83">
@@ -2690,7 +2694,7 @@
       <c r="B84">
         <v>332</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="5">
         <v>45415</v>
       </c>
       <c r="D84">
@@ -2717,7 +2721,7 @@
       <c r="B85">
         <v>333</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="5">
         <v>45418</v>
       </c>
       <c r="D85">
@@ -2744,7 +2748,7 @@
       <c r="B86">
         <v>334</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="5">
         <v>45419</v>
       </c>
       <c r="D86">
@@ -2771,7 +2775,7 @@
       <c r="B87">
         <v>335</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="5">
         <v>45420</v>
       </c>
       <c r="D87">
@@ -2798,7 +2802,7 @@
       <c r="B88">
         <v>336</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="5">
         <v>45421</v>
       </c>
       <c r="D88">
@@ -2825,7 +2829,7 @@
       <c r="B89">
         <v>337</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="5">
         <v>45422</v>
       </c>
       <c r="D89">
@@ -2852,7 +2856,7 @@
       <c r="B90">
         <v>338</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="5">
         <v>45425</v>
       </c>
       <c r="D90">
@@ -2879,7 +2883,7 @@
       <c r="B91">
         <v>339</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="5">
         <v>45426</v>
       </c>
       <c r="D91">
@@ -2906,7 +2910,7 @@
       <c r="B92">
         <v>340</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="5">
         <v>45427</v>
       </c>
       <c r="D92">
@@ -2933,7 +2937,7 @@
       <c r="B93">
         <v>341</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="5">
         <v>45428</v>
       </c>
       <c r="D93">
@@ -2960,7 +2964,7 @@
       <c r="B94">
         <v>342</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="5">
         <v>45429</v>
       </c>
       <c r="D94">
@@ -2987,7 +2991,7 @@
       <c r="B95">
         <v>343</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="5">
         <v>45432</v>
       </c>
       <c r="D95">
@@ -3014,7 +3018,7 @@
       <c r="B96">
         <v>344</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="5">
         <v>45433</v>
       </c>
       <c r="D96">
@@ -3041,7 +3045,7 @@
       <c r="B97">
         <v>345</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="5">
         <v>45434</v>
       </c>
       <c r="D97">
@@ -3068,7 +3072,7 @@
       <c r="B98">
         <v>346</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="5">
         <v>45435</v>
       </c>
       <c r="D98">
@@ -3095,7 +3099,7 @@
       <c r="B99">
         <v>347</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="5">
         <v>45436</v>
       </c>
       <c r="D99">
@@ -3122,7 +3126,7 @@
       <c r="B100">
         <v>348</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="5">
         <v>45440</v>
       </c>
       <c r="D100">
@@ -3149,7 +3153,7 @@
       <c r="B101">
         <v>349</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="5">
         <v>45441</v>
       </c>
       <c r="D101">
@@ -3176,7 +3180,7 @@
       <c r="B102">
         <v>350</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="5">
         <v>45442</v>
       </c>
       <c r="D102">
@@ -3203,7 +3207,7 @@
       <c r="B103">
         <v>351</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="5">
         <v>45443</v>
       </c>
       <c r="D103">
@@ -3230,7 +3234,7 @@
       <c r="B104">
         <v>352</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="5">
         <v>45446</v>
       </c>
       <c r="D104">
@@ -3257,7 +3261,7 @@
       <c r="B105">
         <v>353</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="5">
         <v>45447</v>
       </c>
       <c r="D105">
@@ -3284,7 +3288,7 @@
       <c r="B106">
         <v>354</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="5">
         <v>45448</v>
       </c>
       <c r="D106">
@@ -3311,7 +3315,7 @@
       <c r="B107">
         <v>355</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="5">
         <v>45449</v>
       </c>
       <c r="D107">
@@ -3338,7 +3342,7 @@
       <c r="B108">
         <v>356</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="5">
         <v>45450</v>
       </c>
       <c r="D108">
@@ -3365,7 +3369,7 @@
       <c r="B109">
         <v>357</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="5">
         <v>45453</v>
       </c>
       <c r="D109">
@@ -3392,7 +3396,7 @@
       <c r="B110">
         <v>358</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="5">
         <v>45454</v>
       </c>
       <c r="D110">
@@ -3419,7 +3423,7 @@
       <c r="B111">
         <v>359</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="5">
         <v>45455</v>
       </c>
       <c r="D111">
@@ -3446,7 +3450,7 @@
       <c r="B112">
         <v>360</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="5">
         <v>45456</v>
       </c>
       <c r="D112">
@@ -3473,7 +3477,7 @@
       <c r="B113">
         <v>361</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="5">
         <v>45457</v>
       </c>
       <c r="D113">
@@ -3500,7 +3504,7 @@
       <c r="B114">
         <v>362</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="5">
         <v>45460</v>
       </c>
       <c r="D114">
@@ -3527,7 +3531,7 @@
       <c r="B115">
         <v>363</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="5">
         <v>45461</v>
       </c>
       <c r="D115">
@@ -3554,7 +3558,7 @@
       <c r="B116">
         <v>364</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="5">
         <v>45463</v>
       </c>
       <c r="D116">
@@ -3581,7 +3585,7 @@
       <c r="B117">
         <v>365</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="5">
         <v>45464</v>
       </c>
       <c r="D117">
@@ -3608,7 +3612,7 @@
       <c r="B118">
         <v>366</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="5">
         <v>45467</v>
       </c>
       <c r="D118">
@@ -3635,7 +3639,7 @@
       <c r="B119">
         <v>367</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="5">
         <v>45468</v>
       </c>
       <c r="D119">
@@ -3662,7 +3666,7 @@
       <c r="B120">
         <v>368</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="5">
         <v>45469</v>
       </c>
       <c r="D120">
@@ -3689,7 +3693,7 @@
       <c r="B121">
         <v>369</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="5">
         <v>45470</v>
       </c>
       <c r="D121">
@@ -3716,7 +3720,7 @@
       <c r="B122">
         <v>370</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="5">
         <v>45471</v>
       </c>
       <c r="D122">
@@ -3743,7 +3747,7 @@
       <c r="B123">
         <v>371</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="5">
         <v>45474</v>
       </c>
       <c r="D123">
@@ -3770,7 +3774,7 @@
       <c r="B124">
         <v>372</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="5">
         <v>45475</v>
       </c>
       <c r="D124">
@@ -3797,7 +3801,7 @@
       <c r="B125">
         <v>373</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="5">
         <v>45476</v>
       </c>
       <c r="D125">
@@ -3824,7 +3828,7 @@
       <c r="B126">
         <v>374</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="5">
         <v>45478</v>
       </c>
       <c r="D126">
@@ -3851,7 +3855,7 @@
       <c r="B127">
         <v>375</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="5">
         <v>45481</v>
       </c>
       <c r="D127">
@@ -3878,7 +3882,7 @@
       <c r="B128">
         <v>376</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="5">
         <v>45482</v>
       </c>
       <c r="D128">
@@ -3905,7 +3909,7 @@
       <c r="B129">
         <v>377</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="5">
         <v>45483</v>
       </c>
       <c r="D129">
@@ -3932,7 +3936,7 @@
       <c r="B130">
         <v>378</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="5">
         <v>45484</v>
       </c>
       <c r="D130">
@@ -3959,7 +3963,7 @@
       <c r="B131">
         <v>379</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="5">
         <v>45485</v>
       </c>
       <c r="D131">
@@ -3986,7 +3990,7 @@
       <c r="B132">
         <v>380</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="5">
         <v>45488</v>
       </c>
       <c r="D132">
@@ -4013,7 +4017,7 @@
       <c r="B133">
         <v>381</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="5">
         <v>45489</v>
       </c>
       <c r="D133">
@@ -4040,7 +4044,7 @@
       <c r="B134">
         <v>382</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="5">
         <v>45490</v>
       </c>
       <c r="D134">
@@ -4067,7 +4071,7 @@
       <c r="B135">
         <v>383</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="5">
         <v>45491</v>
       </c>
       <c r="D135">
@@ -4094,7 +4098,7 @@
       <c r="B136">
         <v>384</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="5">
         <v>45492</v>
       </c>
       <c r="D136">
@@ -4121,7 +4125,7 @@
       <c r="B137">
         <v>385</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="5">
         <v>45495</v>
       </c>
       <c r="D137">
@@ -4148,7 +4152,7 @@
       <c r="B138">
         <v>386</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="5">
         <v>45496</v>
       </c>
       <c r="D138">
@@ -4175,7 +4179,7 @@
       <c r="B139">
         <v>387</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="5">
         <v>45497</v>
       </c>
       <c r="D139">
@@ -4202,7 +4206,7 @@
       <c r="B140">
         <v>388</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="5">
         <v>45498</v>
       </c>
       <c r="D140">
@@ -4229,7 +4233,7 @@
       <c r="B141">
         <v>389</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="5">
         <v>45499</v>
       </c>
       <c r="D141">
@@ -4256,7 +4260,7 @@
       <c r="B142">
         <v>390</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="5">
         <v>45502</v>
       </c>
       <c r="D142">
@@ -4283,7 +4287,7 @@
       <c r="B143">
         <v>391</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="5">
         <v>45503</v>
       </c>
       <c r="D143">
@@ -4310,7 +4314,7 @@
       <c r="B144">
         <v>392</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="5">
         <v>45504</v>
       </c>
       <c r="D144">
@@ -4337,7 +4341,7 @@
       <c r="B145">
         <v>393</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="5">
         <v>45505</v>
       </c>
       <c r="D145">
@@ -4364,7 +4368,7 @@
       <c r="B146">
         <v>394</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="5">
         <v>45506</v>
       </c>
       <c r="D146">
@@ -4391,7 +4395,7 @@
       <c r="B147">
         <v>395</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="5">
         <v>45509</v>
       </c>
       <c r="D147">
@@ -4418,7 +4422,7 @@
       <c r="B148">
         <v>396</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="5">
         <v>45510</v>
       </c>
       <c r="D148">
@@ -4445,7 +4449,7 @@
       <c r="B149">
         <v>397</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="5">
         <v>45511</v>
       </c>
       <c r="D149">
@@ -4472,7 +4476,7 @@
       <c r="B150">
         <v>398</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="5">
         <v>45512</v>
       </c>
       <c r="D150">
@@ -4499,7 +4503,7 @@
       <c r="B151">
         <v>399</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="5">
         <v>45513</v>
       </c>
       <c r="D151">
@@ -4526,7 +4530,7 @@
       <c r="B152">
         <v>400</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="5">
         <v>45516</v>
       </c>
       <c r="D152">
@@ -4553,7 +4557,7 @@
       <c r="B153">
         <v>401</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="5">
         <v>45517</v>
       </c>
       <c r="D153">
@@ -4580,7 +4584,7 @@
       <c r="B154">
         <v>402</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="5">
         <v>45518</v>
       </c>
       <c r="D154">
@@ -4607,7 +4611,7 @@
       <c r="B155">
         <v>403</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="5">
         <v>45519</v>
       </c>
       <c r="D155">
@@ -4634,7 +4638,7 @@
       <c r="B156">
         <v>404</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="5">
         <v>45520</v>
       </c>
       <c r="D156">
@@ -4661,7 +4665,7 @@
       <c r="B157">
         <v>405</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="5">
         <v>45523</v>
       </c>
       <c r="D157">
@@ -4688,7 +4692,7 @@
       <c r="B158">
         <v>406</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="5">
         <v>45524</v>
       </c>
       <c r="D158">
@@ -4715,7 +4719,7 @@
       <c r="B159">
         <v>407</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="5">
         <v>45525</v>
       </c>
       <c r="D159">
@@ -4742,7 +4746,7 @@
       <c r="B160">
         <v>408</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="5">
         <v>45526</v>
       </c>
       <c r="D160">
@@ -4769,7 +4773,7 @@
       <c r="B161">
         <v>409</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="5">
         <v>45527</v>
       </c>
       <c r="D161">
@@ -4796,7 +4800,7 @@
       <c r="B162">
         <v>410</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="5">
         <v>45530</v>
       </c>
       <c r="D162">
@@ -4823,7 +4827,7 @@
       <c r="B163">
         <v>411</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="5">
         <v>45531</v>
       </c>
       <c r="D163">
@@ -4850,7 +4854,7 @@
       <c r="B164">
         <v>412</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="5">
         <v>45532</v>
       </c>
       <c r="D164">
@@ -4877,7 +4881,7 @@
       <c r="B165">
         <v>413</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="5">
         <v>45533</v>
       </c>
       <c r="D165">
@@ -4904,7 +4908,7 @@
       <c r="B166">
         <v>414</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="5">
         <v>45534</v>
       </c>
       <c r="D166">
@@ -4931,7 +4935,7 @@
       <c r="B167">
         <v>415</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="5">
         <v>45538</v>
       </c>
       <c r="D167">
@@ -4958,7 +4962,7 @@
       <c r="B168">
         <v>416</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="5">
         <v>45539</v>
       </c>
       <c r="D168">
@@ -4985,7 +4989,7 @@
       <c r="B169">
         <v>417</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="5">
         <v>45540</v>
       </c>
       <c r="D169">
@@ -5012,7 +5016,7 @@
       <c r="B170">
         <v>418</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="5">
         <v>45541</v>
       </c>
       <c r="D170">
@@ -5039,7 +5043,7 @@
       <c r="B171">
         <v>419</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="5">
         <v>45544</v>
       </c>
       <c r="D171">
@@ -5066,7 +5070,7 @@
       <c r="B172">
         <v>420</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="5">
         <v>45545</v>
       </c>
       <c r="D172">
@@ -5093,7 +5097,7 @@
       <c r="B173">
         <v>421</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="5">
         <v>45546</v>
       </c>
       <c r="D173">
@@ -5120,7 +5124,7 @@
       <c r="B174">
         <v>422</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="5">
         <v>45547</v>
       </c>
       <c r="D174">
@@ -5147,7 +5151,7 @@
       <c r="B175">
         <v>423</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="5">
         <v>45548</v>
       </c>
       <c r="D175">
@@ -5174,7 +5178,7 @@
       <c r="B176">
         <v>424</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="5">
         <v>45551</v>
       </c>
       <c r="D176">
@@ -5201,7 +5205,7 @@
       <c r="B177">
         <v>425</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="5">
         <v>45552</v>
       </c>
       <c r="D177">
@@ -5228,7 +5232,7 @@
       <c r="B178">
         <v>426</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="5">
         <v>45553</v>
       </c>
       <c r="D178">
@@ -5255,7 +5259,7 @@
       <c r="B179">
         <v>427</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="5">
         <v>45554</v>
       </c>
       <c r="D179">
@@ -5282,7 +5286,7 @@
       <c r="B180">
         <v>428</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="5">
         <v>45555</v>
       </c>
       <c r="D180">
@@ -5309,7 +5313,7 @@
       <c r="B181">
         <v>429</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="5">
         <v>45558</v>
       </c>
       <c r="D181">
@@ -5336,7 +5340,7 @@
       <c r="B182">
         <v>430</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="5">
         <v>45559</v>
       </c>
       <c r="D182">
@@ -5363,7 +5367,7 @@
       <c r="B183">
         <v>431</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="5">
         <v>45560</v>
       </c>
       <c r="D183">
@@ -5390,7 +5394,7 @@
       <c r="B184">
         <v>432</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="5">
         <v>45561</v>
       </c>
       <c r="D184">
@@ -5417,7 +5421,7 @@
       <c r="B185">
         <v>433</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="5">
         <v>45562</v>
       </c>
       <c r="D185">
@@ -5444,7 +5448,7 @@
       <c r="B186">
         <v>434</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="5">
         <v>45565</v>
       </c>
       <c r="D186">
@@ -5471,7 +5475,7 @@
       <c r="B187">
         <v>435</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="5">
         <v>45566</v>
       </c>
       <c r="D187">
@@ -5498,7 +5502,7 @@
       <c r="B188">
         <v>436</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="5">
         <v>45567</v>
       </c>
       <c r="D188">
@@ -5525,7 +5529,7 @@
       <c r="B189">
         <v>437</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="5">
         <v>45568</v>
       </c>
       <c r="D189">
@@ -5552,7 +5556,7 @@
       <c r="B190">
         <v>438</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="5">
         <v>45569</v>
       </c>
       <c r="D190">
@@ -5579,7 +5583,7 @@
       <c r="B191">
         <v>439</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="5">
         <v>45572</v>
       </c>
       <c r="D191">
@@ -5606,7 +5610,7 @@
       <c r="B192">
         <v>440</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="5">
         <v>45573</v>
       </c>
       <c r="D192">
@@ -5633,7 +5637,7 @@
       <c r="B193">
         <v>441</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="5">
         <v>45574</v>
       </c>
       <c r="D193">
@@ -5660,7 +5664,7 @@
       <c r="B194">
         <v>442</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="5">
         <v>45575</v>
       </c>
       <c r="D194">
@@ -5687,7 +5691,7 @@
       <c r="B195">
         <v>443</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="5">
         <v>45576</v>
       </c>
       <c r="D195">
@@ -5714,7 +5718,7 @@
       <c r="B196">
         <v>444</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="5">
         <v>45579</v>
       </c>
       <c r="D196">
@@ -5741,7 +5745,7 @@
       <c r="B197">
         <v>445</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="5">
         <v>45580</v>
       </c>
       <c r="D197">
@@ -5768,7 +5772,7 @@
       <c r="B198">
         <v>446</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="5">
         <v>45581</v>
       </c>
       <c r="D198">
@@ -5795,7 +5799,7 @@
       <c r="B199">
         <v>447</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="5">
         <v>45582</v>
       </c>
       <c r="D199">
@@ -5822,7 +5826,7 @@
       <c r="B200">
         <v>448</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="5">
         <v>45583</v>
       </c>
       <c r="D200">
@@ -5849,7 +5853,7 @@
       <c r="B201">
         <v>449</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="5">
         <v>45586</v>
       </c>
       <c r="D201">
@@ -5876,7 +5880,7 @@
       <c r="B202">
         <v>450</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="5">
         <v>45587</v>
       </c>
       <c r="D202">
@@ -5903,7 +5907,7 @@
       <c r="B203">
         <v>451</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="5">
         <v>45588</v>
       </c>
       <c r="D203">
@@ -5930,7 +5934,7 @@
       <c r="B204">
         <v>452</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="5">
         <v>45589</v>
       </c>
       <c r="D204">
@@ -5957,7 +5961,7 @@
       <c r="B205">
         <v>453</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="5">
         <v>45590</v>
       </c>
       <c r="D205">
@@ -5984,7 +5988,7 @@
       <c r="B206">
         <v>454</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="5">
         <v>45593</v>
       </c>
       <c r="D206">
@@ -6011,7 +6015,7 @@
       <c r="B207">
         <v>455</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="5">
         <v>45594</v>
       </c>
       <c r="D207">
@@ -6038,7 +6042,7 @@
       <c r="B208">
         <v>456</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="5">
         <v>45595</v>
       </c>
       <c r="D208">
@@ -6065,7 +6069,7 @@
       <c r="B209">
         <v>457</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="5">
         <v>45596</v>
       </c>
       <c r="D209">
@@ -6092,7 +6096,7 @@
       <c r="B210">
         <v>458</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="5">
         <v>45597</v>
       </c>
       <c r="D210">
@@ -6119,7 +6123,7 @@
       <c r="B211">
         <v>459</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="5">
         <v>45600</v>
       </c>
       <c r="D211">
@@ -6146,7 +6150,7 @@
       <c r="B212">
         <v>460</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="5">
         <v>45601</v>
       </c>
       <c r="D212">
@@ -6173,7 +6177,7 @@
       <c r="B213">
         <v>461</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="5">
         <v>45602</v>
       </c>
       <c r="D213">
@@ -6200,7 +6204,7 @@
       <c r="B214">
         <v>462</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="5">
         <v>45603</v>
       </c>
       <c r="D214">
@@ -6227,7 +6231,7 @@
       <c r="B215">
         <v>463</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="5">
         <v>45604</v>
       </c>
       <c r="D215">
@@ -6254,7 +6258,7 @@
       <c r="B216">
         <v>464</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="5">
         <v>45607</v>
       </c>
       <c r="D216">
@@ -6281,7 +6285,7 @@
       <c r="B217">
         <v>465</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="5">
         <v>45608</v>
       </c>
       <c r="D217">
@@ -6308,7 +6312,7 @@
       <c r="B218">
         <v>466</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="5">
         <v>45609</v>
       </c>
       <c r="D218">
@@ -6335,7 +6339,7 @@
       <c r="B219">
         <v>467</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="5">
         <v>45610</v>
       </c>
       <c r="D219">
@@ -6362,7 +6366,7 @@
       <c r="B220">
         <v>468</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="5">
         <v>45611</v>
       </c>
       <c r="D220">
@@ -6389,7 +6393,7 @@
       <c r="B221">
         <v>469</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="5">
         <v>45614</v>
       </c>
       <c r="D221">
@@ -6416,7 +6420,7 @@
       <c r="B222">
         <v>470</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="5">
         <v>45615</v>
       </c>
       <c r="D222">
@@ -6443,7 +6447,7 @@
       <c r="B223">
         <v>471</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="5">
         <v>45616</v>
       </c>
       <c r="D223">
@@ -6470,7 +6474,7 @@
       <c r="B224">
         <v>472</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="5">
         <v>45617</v>
       </c>
       <c r="D224">
@@ -6497,7 +6501,7 @@
       <c r="B225">
         <v>473</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="5">
         <v>45618</v>
       </c>
       <c r="D225">
@@ -6524,7 +6528,7 @@
       <c r="B226">
         <v>474</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="5">
         <v>45621</v>
       </c>
       <c r="D226">
@@ -6551,7 +6555,7 @@
       <c r="B227">
         <v>475</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="5">
         <v>45622</v>
       </c>
       <c r="D227">
@@ -6578,7 +6582,7 @@
       <c r="B228">
         <v>476</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="5">
         <v>45623</v>
       </c>
       <c r="D228">
@@ -6605,7 +6609,7 @@
       <c r="B229">
         <v>477</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="5">
         <v>45625</v>
       </c>
       <c r="D229">
@@ -6632,7 +6636,7 @@
       <c r="B230">
         <v>478</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="5">
         <v>45628</v>
       </c>
       <c r="D230">
@@ -6659,7 +6663,7 @@
       <c r="B231">
         <v>479</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="5">
         <v>45629</v>
       </c>
       <c r="D231">
@@ -6686,7 +6690,7 @@
       <c r="B232">
         <v>480</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="5">
         <v>45630</v>
       </c>
       <c r="D232">
@@ -6713,7 +6717,7 @@
       <c r="B233">
         <v>481</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="5">
         <v>45631</v>
       </c>
       <c r="D233">
@@ -6740,7 +6744,7 @@
       <c r="B234">
         <v>482</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="5">
         <v>45632</v>
       </c>
       <c r="D234">
@@ -6767,7 +6771,7 @@
       <c r="B235">
         <v>483</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="5">
         <v>45635</v>
       </c>
       <c r="D235">
@@ -6794,7 +6798,7 @@
       <c r="B236">
         <v>484</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="5">
         <v>45636</v>
       </c>
       <c r="D236">
@@ -6821,7 +6825,7 @@
       <c r="B237">
         <v>485</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="5">
         <v>45637</v>
       </c>
       <c r="D237">
@@ -6848,7 +6852,7 @@
       <c r="B238">
         <v>486</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="5">
         <v>45638</v>
       </c>
       <c r="D238">
@@ -6875,7 +6879,7 @@
       <c r="B239">
         <v>487</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="5">
         <v>45639</v>
       </c>
       <c r="D239">
@@ -6902,7 +6906,7 @@
       <c r="B240">
         <v>488</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="5">
         <v>45642</v>
       </c>
       <c r="D240">
@@ -6929,7 +6933,7 @@
       <c r="B241">
         <v>489</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="5">
         <v>45643</v>
       </c>
       <c r="D241">
@@ -6956,7 +6960,7 @@
       <c r="B242">
         <v>490</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="5">
         <v>45644</v>
       </c>
       <c r="D242">
@@ -6983,7 +6987,7 @@
       <c r="B243">
         <v>491</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="5">
         <v>45645</v>
       </c>
       <c r="D243">
@@ -7010,7 +7014,7 @@
       <c r="B244">
         <v>492</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="5">
         <v>45646</v>
       </c>
       <c r="D244">
@@ -7037,7 +7041,7 @@
       <c r="B245">
         <v>493</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="5">
         <v>45649</v>
       </c>
       <c r="D245">
@@ -7064,7 +7068,7 @@
       <c r="B246">
         <v>494</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="5">
         <v>45650</v>
       </c>
       <c r="D246">
@@ -7091,7 +7095,7 @@
       <c r="B247">
         <v>495</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="5">
         <v>45652</v>
       </c>
       <c r="D247">
@@ -7118,7 +7122,7 @@
       <c r="B248">
         <v>496</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="5">
         <v>45653</v>
       </c>
       <c r="D248">
@@ -7145,7 +7149,7 @@
       <c r="B249">
         <v>497</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="5">
         <v>45656</v>
       </c>
       <c r="D249">
@@ -7172,7 +7176,7 @@
       <c r="B250">
         <v>498</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="5">
         <v>45657</v>
       </c>
       <c r="D250">
@@ -7199,7 +7203,7 @@
       <c r="B251">
         <v>499</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="5">
         <v>45659</v>
       </c>
       <c r="D251">
@@ -7226,7 +7230,7 @@
       <c r="B252">
         <v>500</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="5">
         <v>45660</v>
       </c>
       <c r="D252">
@@ -7253,7 +7257,7 @@
       <c r="B253">
         <v>501</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="5">
         <v>45663</v>
       </c>
       <c r="D253">
@@ -7280,7 +7284,7 @@
       <c r="B254">
         <v>502</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="5">
         <v>45664</v>
       </c>
       <c r="D254">
@@ -7307,7 +7311,7 @@
       <c r="B255">
         <v>503</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="5">
         <v>45665</v>
       </c>
       <c r="D255">
@@ -7334,7 +7338,7 @@
       <c r="B256">
         <v>504</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="5">
         <v>45667</v>
       </c>
       <c r="D256">
@@ -7354,14 +7358,14 @@
         <v>580.489990234375</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
         <v>505</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="5">
         <v>45670</v>
       </c>
       <c r="D257">
@@ -7381,14 +7385,14 @@
         <v>581.3900146484375</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258">
         <v>506</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="5">
         <v>45671</v>
       </c>
       <c r="D258">
@@ -7408,14 +7412,14 @@
         <v>582.19000244140625</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259">
         <v>507</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="5">
         <v>45672</v>
       </c>
       <c r="D259">
@@ -7435,14 +7439,14 @@
         <v>592.780029296875</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260">
         <v>508</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="5">
         <v>45673</v>
       </c>
       <c r="D260">
@@ -7462,14 +7466,14 @@
         <v>591.6400146484375</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261">
         <v>509</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="5">
         <v>45674</v>
       </c>
       <c r="D261">
@@ -7489,14 +7493,14 @@
         <v>597.58001708984375</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262">
         <v>510</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="5">
         <v>45678</v>
       </c>
       <c r="D262">
@@ -7516,14 +7520,14 @@
         <v>603.04998779296875</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263">
         <v>511</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="5">
         <v>45679</v>
       </c>
       <c r="D263">
@@ -7543,14 +7547,14 @@
         <v>606.44000244140625</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264">
         <v>512</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="5">
         <v>45680</v>
       </c>
       <c r="D264">
@@ -7570,14 +7574,14 @@
         <v>609.75</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265">
         <v>513</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="5">
         <v>45681</v>
       </c>
       <c r="D265">
@@ -7597,14 +7601,14 @@
         <v>607.969970703125</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266">
         <v>514</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="5">
         <v>45684</v>
       </c>
       <c r="D266">
@@ -7624,14 +7628,14 @@
         <v>599.3699951171875</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267">
         <v>515</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="5">
         <v>45685</v>
       </c>
       <c r="D267">
@@ -7651,14 +7655,14 @@
         <v>604.52001953125</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268">
         <v>516</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="5">
         <v>45686</v>
       </c>
       <c r="D268">
@@ -7678,14 +7682,14 @@
         <v>601.80999755859375</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269">
         <v>517</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="5">
         <v>45687</v>
       </c>
       <c r="D269">
@@ -7704,15 +7708,16 @@
       <c r="H269">
         <v>605.03997802734375</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K269" s="4"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270">
         <v>518</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="5">
         <v>45688</v>
       </c>
       <c r="D270">
@@ -7732,14 +7737,14 @@
         <v>601.82000732421875</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271">
         <v>519</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="5">
         <v>45691</v>
       </c>
       <c r="D271">
@@ -7759,14 +7764,14 @@
         <v>597.77001953125</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272">
         <v>520</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="5">
         <v>45692</v>
       </c>
       <c r="D272">
@@ -7793,7 +7798,7 @@
       <c r="B273">
         <v>521</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="5">
         <v>45693</v>
       </c>
       <c r="D273">
@@ -7820,7 +7825,7 @@
       <c r="B274">
         <v>522</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="5">
         <v>45694</v>
       </c>
       <c r="D274">
@@ -7847,7 +7852,7 @@
       <c r="B275">
         <v>523</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="5">
         <v>45695</v>
       </c>
       <c r="D275">
@@ -7874,7 +7879,7 @@
       <c r="B276">
         <v>524</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="5">
         <v>45698</v>
       </c>
       <c r="D276">

--- a/Mateo_ventana250.xlsx
+++ b/Mateo_ventana250.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800A753-9F67-42DE-85C5-17F5EB5F760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830F1457-78D1-41E7-949D-4882759FE49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -440,13 +440,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="K269" sqref="K269"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="31" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -7900,13 +7902,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="A277" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mateo_ventana250.xlsx
+++ b/Mateo_ventana250.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laura\Desktop\Andres Florez\ARCAD\Ensamble\Mateo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F46193-B07A-477B-B52D-76DD85D74875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058776E7-4F5F-49D4-A5D0-E7DB5F34A384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>date-SPY</t>
-  </si>
-  <si>
     <t>direction_SPY</t>
-  </si>
-  <si>
-    <t>prediction</t>
   </si>
   <si>
     <t>L0-open_SPY</t>
@@ -51,6 +45,12 @@
   </si>
   <si>
     <t>Res</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>toggle_false</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277:XFD277"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,22 +432,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D277" si="4">IF(C259=B259,1,0)</f>
+        <f t="shared" ref="D259:D276" si="4">IF(C259=B259,1,0)</f>
         <v>1</v>
       </c>
       <c r="E259">
